--- a/result.xlsx
+++ b/result.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="910" uniqueCount="435">
   <si>
     <t>Name</t>
   </si>
@@ -474,6 +474,857 @@
   </si>
   <si>
     <t>1.051</t>
+  </si>
+  <si>
+    <t>Hennebysvej 26E, Henneby, 6854 Henne</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>1964</t>
+  </si>
+  <si>
+    <t>16.406</t>
+  </si>
+  <si>
+    <t>948</t>
+  </si>
+  <si>
+    <t>Hyttefadet 49, 9240 Nibe</t>
+  </si>
+  <si>
+    <t>1.500</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>1967</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>7.083</t>
+  </si>
+  <si>
+    <t>689</t>
+  </si>
+  <si>
+    <t>Sundvej 59, 1. th, 8700 Horsens</t>
+  </si>
+  <si>
+    <t>1923</t>
+  </si>
+  <si>
+    <t>2.677 / 845</t>
+  </si>
+  <si>
+    <t>Kindvigvej 42, 4735 Mern</t>
+  </si>
+  <si>
+    <t>726</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10.227</t>
+  </si>
+  <si>
+    <t>1.167</t>
+  </si>
+  <si>
+    <t>Ellehammersvej 71B, ST., 9430 Vadum</t>
+  </si>
+  <si>
+    <t>1.221</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>1918</t>
+  </si>
+  <si>
+    <t>9.133</t>
+  </si>
+  <si>
+    <t>1.266</t>
+  </si>
+  <si>
+    <t>Firhøjvej 19, Snertinge, 4460 Snertinge</t>
+  </si>
+  <si>
+    <t>1.085</t>
+  </si>
+  <si>
+    <t>10
+989</t>
+  </si>
+  <si>
+    <t>180</t>
+  </si>
+  <si>
+    <t>399</t>
+  </si>
+  <si>
+    <t>Skovvej 23, Thorning, 8620 Kjellerup</t>
+  </si>
+  <si>
+    <t>896</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>329</t>
+  </si>
+  <si>
+    <t>479</t>
+  </si>
+  <si>
+    <t>Sandsgårdsvej 10A, 7673 Harboøre</t>
+  </si>
+  <si>
+    <t>4.018</t>
+  </si>
+  <si>
+    <t>1985</t>
+  </si>
+  <si>
+    <t>1.800 / 412</t>
+  </si>
+  <si>
+    <t>Kastrupvej 7, Langkastrup, 8960 Randers SØ</t>
+  </si>
+  <si>
+    <t>6.800</t>
+  </si>
+  <si>
+    <t>41%</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>612</t>
+  </si>
+  <si>
+    <t>Hedevejen 4, Nordenbro, 5932 Humble</t>
+  </si>
+  <si>
+    <t>460</t>
+  </si>
+  <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t>1939</t>
+  </si>
+  <si>
+    <t>3.775</t>
+  </si>
+  <si>
+    <t>900</t>
+  </si>
+  <si>
+    <t>Langholmvænget 9, Langholm, 4983 Dannemare</t>
+  </si>
+  <si>
+    <t>1.002</t>
+  </si>
+  <si>
+    <t>1974</t>
+  </si>
+  <si>
+    <t>9.000</t>
+  </si>
+  <si>
+    <t>907</t>
+  </si>
+  <si>
+    <t>Vejlby Klit 393, Vejlby, 7673 Harboøre</t>
+  </si>
+  <si>
+    <t>704</t>
+  </si>
+  <si>
+    <t>703</t>
+  </si>
+  <si>
+    <t>561</t>
+  </si>
+  <si>
+    <t>Glatvedvej 50, Glatved, 8444 Balle</t>
+  </si>
+  <si>
+    <t>690</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>1875</t>
+  </si>
+  <si>
+    <t>4.866</t>
+  </si>
+  <si>
+    <t>1.350</t>
+  </si>
+  <si>
+    <t>Islandsgade 4, 4. th, 9000 Aalborg</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>1930</t>
+  </si>
+  <si>
+    <t>1.356 / 360</t>
+  </si>
+  <si>
+    <t>Bygvænget 1, 4912 Harpelunde</t>
+  </si>
+  <si>
+    <t>1.040</t>
+  </si>
+  <si>
+    <t>135</t>
+  </si>
+  <si>
+    <t>10
+151</t>
+  </si>
+  <si>
+    <t>3.938</t>
+  </si>
+  <si>
+    <t>1.333</t>
+  </si>
+  <si>
+    <t>Bakkevej 21, 6560 Sommersted</t>
+  </si>
+  <si>
+    <t>829</t>
+  </si>
+  <si>
+    <t>125</t>
+  </si>
+  <si>
+    <t>1969</t>
+  </si>
+  <si>
+    <t>4.343</t>
+  </si>
+  <si>
+    <t>1.241</t>
+  </si>
+  <si>
+    <t>Lisbyvej 31, Fjaltring, 7620 Lemvig</t>
+  </si>
+  <si>
+    <t>334</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>20%</t>
+  </si>
+  <si>
+    <t>5.613</t>
+  </si>
+  <si>
+    <t>932</t>
+  </si>
+  <si>
+    <t>Remmerstrandvej 105C, Remmerstrand, 7620 Lemvig</t>
+  </si>
+  <si>
+    <t>2.315</t>
+  </si>
+  <si>
+    <t>257</t>
+  </si>
+  <si>
+    <t>1.438</t>
+  </si>
+  <si>
+    <t>Remmerstrandvej 105B, Remmerstrand, 7620 Lemvig</t>
+  </si>
+  <si>
+    <t>3.110</t>
+  </si>
+  <si>
+    <t>191</t>
+  </si>
+  <si>
+    <t>Hostrupvej 66, 1. Dør/lejl. 1, 9500 Hobro</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>4.078 / 292</t>
+  </si>
+  <si>
+    <t>Neder Jerstalvej 11, 6541 Bevtoft</t>
+  </si>
+  <si>
+    <t>128</t>
+  </si>
+  <si>
+    <t>3.080</t>
+  </si>
+  <si>
+    <t>1.093</t>
+  </si>
+  <si>
+    <t>Dannevang 410, 1., 3480 Fredensborg</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>8.487 / 723</t>
+  </si>
+  <si>
+    <t>Fyrrevej 11, Serup, 7790 Thyholm</t>
+  </si>
+  <si>
+    <t>1.515</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>8.134</t>
+  </si>
+  <si>
+    <t>1.098</t>
+  </si>
+  <si>
+    <t>Ågade 13B, 7361 Ejstrupholm</t>
+  </si>
+  <si>
+    <t>1.150</t>
+  </si>
+  <si>
+    <t>500</t>
+  </si>
+  <si>
+    <t>418</t>
+  </si>
+  <si>
+    <t>Florasvej 15, Kaldred, 4593 Eskebjerg</t>
+  </si>
+  <si>
+    <t>1.200</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>1972</t>
+  </si>
+  <si>
+    <t>15.132</t>
+  </si>
+  <si>
+    <t>850</t>
+  </si>
+  <si>
+    <t>Åbovej 10A, 6372 Bylderup-Bov</t>
+  </si>
+  <si>
+    <t>1.784</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>420</t>
+  </si>
+  <si>
+    <t>Ahornvej 58, Brøndum, 9690 Fjerritslev</t>
+  </si>
+  <si>
+    <t>1.218</t>
+  </si>
+  <si>
+    <t>189</t>
+  </si>
+  <si>
+    <t>303</t>
+  </si>
+  <si>
+    <t>Hovedgaden 21, Vejrumbro, 8830 Tjele</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>1945</t>
+  </si>
+  <si>
+    <t>4.630</t>
+  </si>
+  <si>
+    <t>Sallingsundvej 42B, 7870 Roslev</t>
+  </si>
+  <si>
+    <t>1.043</t>
+  </si>
+  <si>
+    <t>127</t>
+  </si>
+  <si>
+    <t>3.921</t>
+  </si>
+  <si>
+    <t>1.526</t>
+  </si>
+  <si>
+    <t>Doktorvænget 47, 1. TV, 7500 Holstebro</t>
+  </si>
+  <si>
+    <t>2.410</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>11.442</t>
+  </si>
+  <si>
+    <t>1.606</t>
+  </si>
+  <si>
+    <t>Hulvej 9, Husby, 6990 Ulfborg</t>
+  </si>
+  <si>
+    <t>8.000</t>
+  </si>
+  <si>
+    <t>137</t>
+  </si>
+  <si>
+    <t>14
+524</t>
+  </si>
+  <si>
+    <t>3.356</t>
+  </si>
+  <si>
+    <t>1.962</t>
+  </si>
+  <si>
+    <t>Vejlevej 7&amp;19, Knudstrup, 8620 Kjellerup</t>
+  </si>
+  <si>
+    <t>2.795</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>1970</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>9.476</t>
+  </si>
+  <si>
+    <t>1.011</t>
+  </si>
+  <si>
+    <t>Tingvej 13, Stude, 4241 Vemmelev</t>
+  </si>
+  <si>
+    <t>670</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>1777</t>
+  </si>
+  <si>
+    <t>5.175</t>
+  </si>
+  <si>
+    <t>1.253</t>
+  </si>
+  <si>
+    <t>Skråningen 3-30, Bønnerup Strand, 8585 Glesborg</t>
+  </si>
+  <si>
+    <t>1.250</t>
+  </si>
+  <si>
+    <t>236</t>
+  </si>
+  <si>
+    <t>708</t>
+  </si>
+  <si>
+    <t>Vestermøllevej 54, Fjaltring, 7620 Lemvig</t>
+  </si>
+  <si>
+    <t>1.363</t>
+  </si>
+  <si>
+    <t>5.000</t>
+  </si>
+  <si>
+    <t>957</t>
+  </si>
+  <si>
+    <t>Sommervej 40, Hou, 9370 Hals</t>
+  </si>
+  <si>
+    <t>1.050</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>10.273</t>
+  </si>
+  <si>
+    <t>998</t>
+  </si>
+  <si>
+    <t>Benediktevej 26, 6500 Vojens</t>
+  </si>
+  <si>
+    <t>740</t>
+  </si>
+  <si>
+    <t>146</t>
+  </si>
+  <si>
+    <t>1961</t>
+  </si>
+  <si>
+    <t>1.864</t>
+  </si>
+  <si>
+    <t>Grantoften 15, 4952 Stokkemarke</t>
+  </si>
+  <si>
+    <t>826</t>
+  </si>
+  <si>
+    <t>1979</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>6.016</t>
+  </si>
+  <si>
+    <t>1.100</t>
+  </si>
+  <si>
+    <t>Tejnvej 25 Dør/lejl. 8, Sandkås, 3770 Allinge</t>
+  </si>
+  <si>
+    <t>54.715</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>18.750</t>
+  </si>
+  <si>
+    <t>650</t>
+  </si>
+  <si>
+    <t>Poul la Cours Vej 18, 6600 Vejen</t>
+  </si>
+  <si>
+    <t>1.118</t>
+  </si>
+  <si>
+    <t>513</t>
+  </si>
+  <si>
+    <t>Vestergade 141D, Rim nr. 109, Havneby, 6792 Rømø</t>
+  </si>
+  <si>
+    <t>70.182</t>
+  </si>
+  <si>
+    <t>1987</t>
+  </si>
+  <si>
+    <t>8.380</t>
+  </si>
+  <si>
+    <t>3.369</t>
+  </si>
+  <si>
+    <t>Vestergade 1A, 1. tv, Ørum, 8830 Tjele</t>
+  </si>
+  <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t>1993</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>4.100 / 950</t>
+  </si>
+  <si>
+    <t>Kronvildtvej 14, Krogen, 9460 Brovst</t>
+  </si>
+  <si>
+    <t>1.382</t>
+  </si>
+  <si>
+    <t>141</t>
+  </si>
+  <si>
+    <t>409</t>
+  </si>
+  <si>
+    <t>Kronvildtvej 8, Krogen, 9460 Brovst</t>
+  </si>
+  <si>
+    <t>1.696</t>
+  </si>
+  <si>
+    <t>115</t>
+  </si>
+  <si>
+    <t>414</t>
+  </si>
+  <si>
+    <t>Kronvildtvej 58, Krogen, 9460 Brovst</t>
+  </si>
+  <si>
+    <t>2.026</t>
+  </si>
+  <si>
+    <t>415</t>
+  </si>
+  <si>
+    <t>Kronvildtvej 26, Krogen, 9460 Brovst</t>
+  </si>
+  <si>
+    <t>1.364</t>
+  </si>
+  <si>
+    <t>143</t>
+  </si>
+  <si>
+    <t>Hobrovej 52, 4. Dør/lejl. 2, 8900 Randers C</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>1948</t>
+  </si>
+  <si>
+    <t>2.440 / 1.133</t>
+  </si>
+  <si>
+    <t>Stenøvej 69, Agernæs, 5450 Otterup</t>
+  </si>
+  <si>
+    <t>1.344</t>
+  </si>
+  <si>
+    <t>1827</t>
+  </si>
+  <si>
+    <t>2.574</t>
+  </si>
+  <si>
+    <t>1.052</t>
+  </si>
+  <si>
+    <t>Kramnitsevej 138, Kramnitse, 4970 Rødby</t>
+  </si>
+  <si>
+    <t>840</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>237</t>
+  </si>
+  <si>
+    <t>364</t>
+  </si>
+  <si>
+    <t>Dalgasmindevej 3, 8831 Løgstrup</t>
+  </si>
+  <si>
+    <t>1.064</t>
+  </si>
+  <si>
+    <t>18
+1.020</t>
+  </si>
+  <si>
+    <t>211</t>
+  </si>
+  <si>
+    <t>356</t>
+  </si>
+  <si>
+    <t>Dalgasmindevej 7, 8831 Løgstrup</t>
+  </si>
+  <si>
+    <t>1.065</t>
+  </si>
+  <si>
+    <t>347</t>
+  </si>
+  <si>
+    <t>Hermann Stillings Vej 6, 3. tv, 8930 Randers NØ</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>1.412 / 34.597</t>
+  </si>
+  <si>
+    <t>Hindingvej 32, Nors, 7700 Thisted</t>
+  </si>
+  <si>
+    <t>800</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>1873</t>
+  </si>
+  <si>
+    <t>3.093</t>
+  </si>
+  <si>
+    <t>847</t>
+  </si>
+  <si>
+    <t>Harevej 1, Skaven Strand, 6880 Tarm</t>
+  </si>
+  <si>
+    <t>926</t>
+  </si>
+  <si>
+    <t>459</t>
+  </si>
+  <si>
+    <t>648</t>
+  </si>
+  <si>
+    <t>Harestien 9, Tornby, 9850 Hirtshals</t>
+  </si>
+  <si>
+    <t>2.500</t>
+  </si>
+  <si>
+    <t>198</t>
+  </si>
+  <si>
+    <t>1.216</t>
+  </si>
+  <si>
+    <t>Korsbakkevej 26, Bjergby, 7950 Erslev</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>4.583</t>
+  </si>
+  <si>
+    <t>927</t>
+  </si>
+  <si>
+    <t>Tyentved 17, Tyentved, 5400 Bogense</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>18
+217</t>
+  </si>
+  <si>
+    <t>6.467</t>
+  </si>
+  <si>
+    <t>Galgeparken 2, Blenstrup, 9520 Skørping</t>
+  </si>
+  <si>
+    <t>5.459</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>2000</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>3.440 / 750</t>
+  </si>
+  <si>
+    <t>Enebærvej 77A, 6880 Tarm</t>
+  </si>
+  <si>
+    <t>845</t>
+  </si>
+  <si>
+    <t>325</t>
+  </si>
+  <si>
+    <t>419</t>
+  </si>
+  <si>
+    <t>Snedkergårdsvej 3, Hørby, 9300 Sæby</t>
+  </si>
+  <si>
+    <t>814</t>
+  </si>
+  <si>
+    <t>3.186</t>
+  </si>
+  <si>
+    <t>1.096</t>
   </si>
 </sst>
 </file>
@@ -1713,6 +2564,2406 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="34994850"/>
+          <a:ext cx="2000250" cy="1323975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2000250</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="32" name="Picture 31" descr="?sagsnr=68305208">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId61"/>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId62"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="36195000"/>
+          <a:ext cx="2000250" cy="1323975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2000250</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="33" name="Picture 32" descr="?sagsnr=92402698">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId63"/>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId64"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="37395150"/>
+          <a:ext cx="2000250" cy="1323975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2000250</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="34" name="Picture 33" descr="?sagsnr=87105343">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId65"/>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId66"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="38595300"/>
+          <a:ext cx="2000250" cy="1323975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2000250</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="35" name="Picture 34" descr="?sagsnr=47604666">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId67"/>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId68"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="39795450"/>
+          <a:ext cx="2000250" cy="1323975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2000250</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="36" name="Picture 35" descr="?sagsnr=94403256">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId69"/>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId70"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="40995600"/>
+          <a:ext cx="2000250" cy="1323975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2000250</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="37" name="Picture 36" descr="?sagsnr=43103141">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId71"/>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId72"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="42195750"/>
+          <a:ext cx="2000250" cy="1323975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2000250</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="38" name="Picture 37" descr="?sagsnr=86104398">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId73"/>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId74"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="43395900"/>
+          <a:ext cx="2000250" cy="1323975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2000250</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="39" name="Picture 38" descr="?sagsnr=71103981">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId75"/>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId76"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="44596050"/>
+          <a:ext cx="2000250" cy="1323975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2000250</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="40" name="Picture 39" descr="?sagsnr=89103199">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId77"/>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId78"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="45796200"/>
+          <a:ext cx="2000250" cy="1323975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2000250</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="41" name="Picture 40" descr="?sagsnr=59002850">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId79"/>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId80"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="46996350"/>
+          <a:ext cx="2000250" cy="1323975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2000250</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>295275</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="42" name="Picture 41" descr="?sagsnr=49204758">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId81"/>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId82"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="48196500"/>
+          <a:ext cx="2000250" cy="1495425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2000250</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="43" name="Picture 42" descr="?sagsnr=71103987">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId83"/>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId84"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="49396650"/>
+          <a:ext cx="2000250" cy="1323975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2000250</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="44" name="Picture 43" descr="?sagsnr=85202680">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId85"/>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId86"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="50596800"/>
+          <a:ext cx="2000250" cy="1323975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2000250</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="45" name="Picture 44" descr="?sagsnr=91003429">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId87"/>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId88"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="51796950"/>
+          <a:ext cx="2000250" cy="1323975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2000250</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="46" name="Picture 45" descr="?sagsnr=49204719">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId89"/>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId90"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="52997100"/>
+          <a:ext cx="2000250" cy="1323975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2000250</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="47" name="Picture 46" descr="?sagsnr=60905430">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId91"/>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId92"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="54197250"/>
+          <a:ext cx="2000250" cy="1323975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2000250</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="48" name="Picture 47" descr="?sagsnr=71104002">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId93"/>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId94"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="55397400"/>
+          <a:ext cx="2000250" cy="1323975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2000250</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>1114425</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="49" name="Picture 48" descr="?sagsnr=70503291">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId95"/>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId96"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="56597550"/>
+          <a:ext cx="2000250" cy="1114425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2000250</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>1114425</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="50" name="Picture 49" descr="?sagsnr=70503295">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId97"/>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId98"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="57797700"/>
+          <a:ext cx="2000250" cy="1114425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2000250</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="51" name="Picture 50" descr="?sagsnr=95207597">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId99"/>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId100"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="58997850"/>
+          <a:ext cx="2000250" cy="1323975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2000250</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="52" name="Picture 51" descr="?sagsnr=60905354">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId101"/>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId102"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="60198000"/>
+          <a:ext cx="2000250" cy="1323975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2000250</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>1114425</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="53" name="Picture 52" descr="?sagsnr=35302288">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId103"/>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId104"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="61398150"/>
+          <a:ext cx="2000250" cy="1114425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2000250</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="54" name="Picture 53" descr="?sagsnr=70503256">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId105"/>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId106"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="62598300"/>
+          <a:ext cx="2000250" cy="1323975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2000250</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>295275</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="55" name="Picture 54" descr="?sagsnr=87601638">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId107"/>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId108"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="63798450"/>
+          <a:ext cx="2000250" cy="1495425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2000250</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>295275</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="56" name="Picture 55" descr="?sagsnr=44104128">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId109"/>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId110"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="64998600"/>
+          <a:ext cx="2000250" cy="1495425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2000250</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>295275</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="57" name="Picture 56" descr="?sagsnr=62303968">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId111"/>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId112"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="66198750"/>
+          <a:ext cx="2000250" cy="1495425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2000250</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>295275</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="58" name="Picture 57" descr="?sagsnr=96903070">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId113"/>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId114"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="67398900"/>
+          <a:ext cx="2000250" cy="1495425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2000250</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="59" name="Picture 58" descr="?sagsnr=88103460">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId115"/>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId116"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="68599050"/>
+          <a:ext cx="2000250" cy="1323975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2000250</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="60" name="Picture 59" descr="?sagsnr=78604803">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId117"/>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId118"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="69799200"/>
+          <a:ext cx="2000250" cy="1323975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2000250</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="61" name="Picture 60" descr="?sagsnr=75205496">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId119"/>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId120"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="70999350"/>
+          <a:ext cx="2000250" cy="1323975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2000250</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>1133475</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="62" name="Picture 61" descr="?sagsnr=69207996">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId121"/>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId122"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="72199500"/>
+          <a:ext cx="2000250" cy="1133475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2000250</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="63" name="Picture 62" descr="?sagsnr=86104302">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId123"/>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId124"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="73399650"/>
+          <a:ext cx="2000250" cy="1323975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2000250</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="64" name="Picture 63" descr="?sagsnr=42204535">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId125"/>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId126"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="74599800"/>
+          <a:ext cx="2000250" cy="1323975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2000250</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="65" name="Picture 64" descr="?sagsnr=85202947">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId127"/>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId128"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="75799950"/>
+          <a:ext cx="2000250" cy="1323975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2000250</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="66" name="Picture 65" descr="?sagsnr=71103949">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId129"/>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId130"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="77000100"/>
+          <a:ext cx="2000250" cy="1323975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2000250</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="67" name="Picture 66" descr="?sagsnr=93802485">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId131"/>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId132"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="78200250"/>
+          <a:ext cx="2000250" cy="1323975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2000250</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="68" name="Picture 67" descr="?sagsnr=60905384">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId133"/>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId134"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="79400400"/>
+          <a:ext cx="2000250" cy="1323975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2000250</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="69" name="Picture 68" descr="?sagsnr=49304910">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId135"/>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId136"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="80600550"/>
+          <a:ext cx="2000250" cy="1323975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2000250</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>295275</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="70" name="Picture 69" descr="?sagsnr=37103791">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId137"/>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId138"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="81800700"/>
+          <a:ext cx="2000250" cy="1495425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2000250</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="71" name="Picture 70" descr="?sagsnr=61011744">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId139"/>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="83000850"/>
+          <a:ext cx="2000250" cy="1323975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2000250</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="72" name="Picture 71" descr="?sagsnr=67900375">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId140"/>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId141"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="84201000"/>
+          <a:ext cx="2000250" cy="1323975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2000250</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="73" name="Picture 72" descr="?sagsnr=88103573">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId142"/>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId143"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="85401150"/>
+          <a:ext cx="2000250" cy="1323975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2000250</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>295275</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="74" name="Picture 73" descr="?sagsnr=94602139">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId144"/>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId145"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="86601300"/>
+          <a:ext cx="2000250" cy="1495425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2000250</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>295275</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="75" name="Picture 74" descr="?sagsnr=94602142">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId146"/>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId147"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="87801450"/>
+          <a:ext cx="2000250" cy="1495425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2000250</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>295275</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="76" name="Picture 75" descr="?sagsnr=94602140">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId148"/>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId149"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="89001600"/>
+          <a:ext cx="2000250" cy="1495425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2000250</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>295275</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="77" name="Picture 76" descr="?sagsnr=94602141">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId150"/>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId151"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="90201750"/>
+          <a:ext cx="2000250" cy="1495425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2000250</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="78" name="Picture 77" descr="?sagsnr=89002725">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId152"/>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId153"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="91401900"/>
+          <a:ext cx="2000250" cy="1323975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2000250</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="79" name="Picture 78" descr="?sagsnr=54502497">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId154"/>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId155"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="92602050"/>
+          <a:ext cx="2000250" cy="1323975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2000250</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="80" name="Picture 79" descr="?sagsnr=49702326">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId156"/>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId157"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="93802200"/>
+          <a:ext cx="2000250" cy="1323975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2000250</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="81" name="Picture 80" descr="?sagsnr=88103544">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId158"/>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId159"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="95002350"/>
+          <a:ext cx="2000250" cy="1323975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2000250</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="82" name="Picture 81" descr="?sagsnr=88103542">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId160"/>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId161"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="96202500"/>
+          <a:ext cx="2000250" cy="1323975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2000250</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="83" name="Picture 82" descr="?sagsnr=89002792">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId162"/>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId163"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="97402650"/>
+          <a:ext cx="2000250" cy="1323975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2000250</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>1114425</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="84" name="Picture 83" descr="?sagsnr=77102624">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId164"/>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId165"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="98602800"/>
+          <a:ext cx="2000250" cy="1114425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2000250</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>295275</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="85" name="Picture 84" descr="?sagsnr=68802019">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId166"/>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId167"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="99802950"/>
+          <a:ext cx="2000250" cy="1495425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2000250</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>295275</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="86" name="Picture 85" descr="?sagsnr=98501200">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId168"/>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId169"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="101003100"/>
+          <a:ext cx="2000250" cy="1495425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2000250</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="87" name="Picture 86" descr="?sagsnr=79003593">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId170"/>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId171"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="102203250"/>
+          <a:ext cx="2000250" cy="1323975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2000250</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="88" name="Picture 87" descr="?sagsnr=54101792">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId172"/>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId173"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="103403400"/>
+          <a:ext cx="2000250" cy="1323975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2000250</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="89" name="Picture 88" descr="?sagsnr=95705571">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId174"/>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId175"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="104603550"/>
+          <a:ext cx="2000250" cy="1323975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2000250</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>295275</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="90" name="Picture 89" descr="?sagsnr=68802059">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId176"/>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId177"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="105803700"/>
+          <a:ext cx="2000250" cy="1495425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2000250</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="91" name="Picture 90" descr="?sagsnr=93005601">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId178"/>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId179"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="107003850"/>
           <a:ext cx="2000250" cy="1323975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2010,7 +5261,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:K31"/>
+  <dimension ref="B1:K91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3011,6 +6262,1926 @@
         <v>152</v>
       </c>
     </row>
+    <row r="32" spans="2:11" ht="95" customHeight="1">
+      <c r="B32" t="s">
+        <v>153</v>
+      </c>
+      <c r="C32" t="s">
+        <v>29</v>
+      </c>
+      <c r="D32" t="s">
+        <v>154</v>
+      </c>
+      <c r="E32" t="s">
+        <v>83</v>
+      </c>
+      <c r="F32" t="s">
+        <v>155</v>
+      </c>
+      <c r="G32" t="s">
+        <v>88</v>
+      </c>
+      <c r="H32" t="s">
+        <v>33</v>
+      </c>
+      <c r="I32" t="s">
+        <v>12</v>
+      </c>
+      <c r="J32" t="s">
+        <v>156</v>
+      </c>
+      <c r="K32" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11" ht="95" customHeight="1">
+      <c r="B33" t="s">
+        <v>158</v>
+      </c>
+      <c r="C33" t="s">
+        <v>159</v>
+      </c>
+      <c r="D33" t="s">
+        <v>160</v>
+      </c>
+      <c r="E33" t="s">
+        <v>83</v>
+      </c>
+      <c r="F33" t="s">
+        <v>161</v>
+      </c>
+      <c r="G33" t="s">
+        <v>162</v>
+      </c>
+      <c r="H33" t="s">
+        <v>33</v>
+      </c>
+      <c r="I33" t="s">
+        <v>12</v>
+      </c>
+      <c r="J33" t="s">
+        <v>163</v>
+      </c>
+      <c r="K33" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11" ht="95" customHeight="1">
+      <c r="B34" t="s">
+        <v>165</v>
+      </c>
+      <c r="C34" t="s">
+        <v>29</v>
+      </c>
+      <c r="D34" t="s">
+        <v>149</v>
+      </c>
+      <c r="E34" t="s">
+        <v>31</v>
+      </c>
+      <c r="F34" t="s">
+        <v>166</v>
+      </c>
+      <c r="G34" t="s">
+        <v>162</v>
+      </c>
+      <c r="H34" t="s">
+        <v>33</v>
+      </c>
+      <c r="I34" t="s">
+        <v>167</v>
+      </c>
+      <c r="J34" t="s">
+        <v>12</v>
+      </c>
+      <c r="K34" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11" ht="95" customHeight="1">
+      <c r="B35" t="s">
+        <v>168</v>
+      </c>
+      <c r="C35" t="s">
+        <v>169</v>
+      </c>
+      <c r="D35" t="s">
+        <v>123</v>
+      </c>
+      <c r="E35" t="s">
+        <v>31</v>
+      </c>
+      <c r="F35" t="s">
+        <v>95</v>
+      </c>
+      <c r="G35" t="s">
+        <v>170</v>
+      </c>
+      <c r="H35" t="s">
+        <v>33</v>
+      </c>
+      <c r="I35" t="s">
+        <v>12</v>
+      </c>
+      <c r="J35" t="s">
+        <v>171</v>
+      </c>
+      <c r="K35" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11" ht="95" customHeight="1">
+      <c r="B36" t="s">
+        <v>173</v>
+      </c>
+      <c r="C36" t="s">
+        <v>174</v>
+      </c>
+      <c r="D36" t="s">
+        <v>175</v>
+      </c>
+      <c r="E36" t="s">
+        <v>83</v>
+      </c>
+      <c r="F36" t="s">
+        <v>176</v>
+      </c>
+      <c r="G36" t="s">
+        <v>170</v>
+      </c>
+      <c r="H36" t="s">
+        <v>33</v>
+      </c>
+      <c r="I36" t="s">
+        <v>12</v>
+      </c>
+      <c r="J36" t="s">
+        <v>177</v>
+      </c>
+      <c r="K36" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="37" spans="2:11" ht="95" customHeight="1">
+      <c r="B37" t="s">
+        <v>179</v>
+      </c>
+      <c r="C37" t="s">
+        <v>180</v>
+      </c>
+      <c r="D37" t="s">
+        <v>12</v>
+      </c>
+      <c r="E37" t="s">
+        <v>12</v>
+      </c>
+      <c r="F37" t="s">
+        <v>12</v>
+      </c>
+      <c r="G37" t="s">
+        <v>181</v>
+      </c>
+      <c r="H37" t="s">
+        <v>33</v>
+      </c>
+      <c r="I37" t="s">
+        <v>12</v>
+      </c>
+      <c r="J37" t="s">
+        <v>182</v>
+      </c>
+      <c r="K37" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="38" spans="2:11" ht="95" customHeight="1">
+      <c r="B38" t="s">
+        <v>184</v>
+      </c>
+      <c r="C38" t="s">
+        <v>185</v>
+      </c>
+      <c r="D38" t="s">
+        <v>12</v>
+      </c>
+      <c r="E38" t="s">
+        <v>12</v>
+      </c>
+      <c r="F38" t="s">
+        <v>12</v>
+      </c>
+      <c r="G38" t="s">
+        <v>186</v>
+      </c>
+      <c r="H38" t="s">
+        <v>33</v>
+      </c>
+      <c r="I38" t="s">
+        <v>12</v>
+      </c>
+      <c r="J38" t="s">
+        <v>187</v>
+      </c>
+      <c r="K38" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="39" spans="2:11" ht="95" customHeight="1">
+      <c r="B39" t="s">
+        <v>189</v>
+      </c>
+      <c r="C39" t="s">
+        <v>190</v>
+      </c>
+      <c r="D39" t="s">
+        <v>81</v>
+      </c>
+      <c r="E39" t="s">
+        <v>31</v>
+      </c>
+      <c r="F39" t="s">
+        <v>191</v>
+      </c>
+      <c r="G39" t="s">
+        <v>186</v>
+      </c>
+      <c r="H39" t="s">
+        <v>33</v>
+      </c>
+      <c r="I39" t="s">
+        <v>192</v>
+      </c>
+      <c r="J39" t="s">
+        <v>12</v>
+      </c>
+      <c r="K39" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" spans="2:11" ht="95" customHeight="1">
+      <c r="B40" t="s">
+        <v>193</v>
+      </c>
+      <c r="C40" t="s">
+        <v>194</v>
+      </c>
+      <c r="D40" t="s">
+        <v>12</v>
+      </c>
+      <c r="E40" t="s">
+        <v>12</v>
+      </c>
+      <c r="F40" t="s">
+        <v>12</v>
+      </c>
+      <c r="G40" t="s">
+        <v>186</v>
+      </c>
+      <c r="H40" t="s">
+        <v>195</v>
+      </c>
+      <c r="I40" t="s">
+        <v>12</v>
+      </c>
+      <c r="J40" t="s">
+        <v>196</v>
+      </c>
+      <c r="K40" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="41" spans="2:11" ht="95" customHeight="1">
+      <c r="B41" t="s">
+        <v>198</v>
+      </c>
+      <c r="C41" t="s">
+        <v>199</v>
+      </c>
+      <c r="D41" t="s">
+        <v>200</v>
+      </c>
+      <c r="E41" t="s">
+        <v>15</v>
+      </c>
+      <c r="F41" t="s">
+        <v>201</v>
+      </c>
+      <c r="G41" t="s">
+        <v>186</v>
+      </c>
+      <c r="H41" t="s">
+        <v>33</v>
+      </c>
+      <c r="I41" t="s">
+        <v>12</v>
+      </c>
+      <c r="J41" t="s">
+        <v>202</v>
+      </c>
+      <c r="K41" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="42" spans="2:11" ht="95" customHeight="1">
+      <c r="B42" t="s">
+        <v>204</v>
+      </c>
+      <c r="C42" t="s">
+        <v>205</v>
+      </c>
+      <c r="D42" t="s">
+        <v>112</v>
+      </c>
+      <c r="E42" t="s">
+        <v>31</v>
+      </c>
+      <c r="F42" t="s">
+        <v>206</v>
+      </c>
+      <c r="G42" t="s">
+        <v>186</v>
+      </c>
+      <c r="H42" t="s">
+        <v>33</v>
+      </c>
+      <c r="I42" t="s">
+        <v>12</v>
+      </c>
+      <c r="J42" t="s">
+        <v>207</v>
+      </c>
+      <c r="K42" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="43" spans="2:11" ht="95" customHeight="1">
+      <c r="B43" t="s">
+        <v>209</v>
+      </c>
+      <c r="C43" t="s">
+        <v>210</v>
+      </c>
+      <c r="D43" t="s">
+        <v>12</v>
+      </c>
+      <c r="E43" t="s">
+        <v>12</v>
+      </c>
+      <c r="F43" t="s">
+        <v>12</v>
+      </c>
+      <c r="G43" t="s">
+        <v>186</v>
+      </c>
+      <c r="H43" t="s">
+        <v>33</v>
+      </c>
+      <c r="I43" t="s">
+        <v>12</v>
+      </c>
+      <c r="J43" t="s">
+        <v>211</v>
+      </c>
+      <c r="K43" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="44" spans="2:11" ht="95" customHeight="1">
+      <c r="B44" t="s">
+        <v>213</v>
+      </c>
+      <c r="C44" t="s">
+        <v>214</v>
+      </c>
+      <c r="D44" t="s">
+        <v>215</v>
+      </c>
+      <c r="E44" t="s">
+        <v>63</v>
+      </c>
+      <c r="F44" t="s">
+        <v>216</v>
+      </c>
+      <c r="G44" t="s">
+        <v>186</v>
+      </c>
+      <c r="H44" t="s">
+        <v>33</v>
+      </c>
+      <c r="I44" t="s">
+        <v>12</v>
+      </c>
+      <c r="J44" t="s">
+        <v>217</v>
+      </c>
+      <c r="K44" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="45" spans="2:11" ht="95" customHeight="1">
+      <c r="B45" t="s">
+        <v>219</v>
+      </c>
+      <c r="C45" t="s">
+        <v>29</v>
+      </c>
+      <c r="D45" t="s">
+        <v>220</v>
+      </c>
+      <c r="E45" t="s">
+        <v>83</v>
+      </c>
+      <c r="F45" t="s">
+        <v>221</v>
+      </c>
+      <c r="G45" t="s">
+        <v>186</v>
+      </c>
+      <c r="H45" t="s">
+        <v>33</v>
+      </c>
+      <c r="I45" t="s">
+        <v>222</v>
+      </c>
+      <c r="J45" t="s">
+        <v>12</v>
+      </c>
+      <c r="K45" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="2:11" ht="95" customHeight="1">
+      <c r="B46" t="s">
+        <v>223</v>
+      </c>
+      <c r="C46" t="s">
+        <v>224</v>
+      </c>
+      <c r="D46" t="s">
+        <v>225</v>
+      </c>
+      <c r="E46" t="s">
+        <v>15</v>
+      </c>
+      <c r="F46" t="s">
+        <v>206</v>
+      </c>
+      <c r="G46" t="s">
+        <v>226</v>
+      </c>
+      <c r="H46" t="s">
+        <v>33</v>
+      </c>
+      <c r="I46" t="s">
+        <v>12</v>
+      </c>
+      <c r="J46" t="s">
+        <v>227</v>
+      </c>
+      <c r="K46" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="47" spans="2:11" ht="95" customHeight="1">
+      <c r="B47" t="s">
+        <v>229</v>
+      </c>
+      <c r="C47" t="s">
+        <v>230</v>
+      </c>
+      <c r="D47" t="s">
+        <v>231</v>
+      </c>
+      <c r="E47" t="s">
+        <v>15</v>
+      </c>
+      <c r="F47" t="s">
+        <v>232</v>
+      </c>
+      <c r="G47" t="s">
+        <v>186</v>
+      </c>
+      <c r="H47" t="s">
+        <v>33</v>
+      </c>
+      <c r="I47" t="s">
+        <v>12</v>
+      </c>
+      <c r="J47" t="s">
+        <v>233</v>
+      </c>
+      <c r="K47" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="48" spans="2:11" ht="95" customHeight="1">
+      <c r="B48" t="s">
+        <v>235</v>
+      </c>
+      <c r="C48" t="s">
+        <v>236</v>
+      </c>
+      <c r="D48" t="s">
+        <v>237</v>
+      </c>
+      <c r="E48" t="s">
+        <v>31</v>
+      </c>
+      <c r="F48" t="s">
+        <v>76</v>
+      </c>
+      <c r="G48" t="s">
+        <v>186</v>
+      </c>
+      <c r="H48" t="s">
+        <v>238</v>
+      </c>
+      <c r="I48" t="s">
+        <v>12</v>
+      </c>
+      <c r="J48" t="s">
+        <v>239</v>
+      </c>
+      <c r="K48" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="49" spans="2:11" ht="95" customHeight="1">
+      <c r="B49" t="s">
+        <v>241</v>
+      </c>
+      <c r="C49" t="s">
+        <v>242</v>
+      </c>
+      <c r="D49" t="s">
+        <v>12</v>
+      </c>
+      <c r="E49" t="s">
+        <v>12</v>
+      </c>
+      <c r="F49" t="s">
+        <v>12</v>
+      </c>
+      <c r="G49" t="s">
+        <v>186</v>
+      </c>
+      <c r="H49" t="s">
+        <v>33</v>
+      </c>
+      <c r="I49" t="s">
+        <v>12</v>
+      </c>
+      <c r="J49" t="s">
+        <v>243</v>
+      </c>
+      <c r="K49" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="50" spans="2:11" ht="95" customHeight="1">
+      <c r="B50" t="s">
+        <v>245</v>
+      </c>
+      <c r="C50" t="s">
+        <v>246</v>
+      </c>
+      <c r="D50" t="s">
+        <v>12</v>
+      </c>
+      <c r="E50" t="s">
+        <v>12</v>
+      </c>
+      <c r="F50" t="s">
+        <v>12</v>
+      </c>
+      <c r="G50" t="s">
+        <v>186</v>
+      </c>
+      <c r="H50" t="s">
+        <v>33</v>
+      </c>
+      <c r="I50" t="s">
+        <v>12</v>
+      </c>
+      <c r="J50" t="s">
+        <v>247</v>
+      </c>
+      <c r="K50" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="51" spans="2:11" ht="95" customHeight="1">
+      <c r="B51" t="s">
+        <v>248</v>
+      </c>
+      <c r="C51" t="s">
+        <v>29</v>
+      </c>
+      <c r="D51" t="s">
+        <v>249</v>
+      </c>
+      <c r="E51" t="s">
+        <v>31</v>
+      </c>
+      <c r="F51" t="s">
+        <v>250</v>
+      </c>
+      <c r="G51" t="s">
+        <v>251</v>
+      </c>
+      <c r="H51" t="s">
+        <v>33</v>
+      </c>
+      <c r="I51" t="s">
+        <v>252</v>
+      </c>
+      <c r="J51" t="s">
+        <v>12</v>
+      </c>
+      <c r="K51" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="52" spans="2:11" ht="95" customHeight="1">
+      <c r="B52" t="s">
+        <v>253</v>
+      </c>
+      <c r="C52" t="s">
+        <v>164</v>
+      </c>
+      <c r="D52" t="s">
+        <v>254</v>
+      </c>
+      <c r="E52" t="s">
+        <v>63</v>
+      </c>
+      <c r="F52" t="s">
+        <v>38</v>
+      </c>
+      <c r="G52" t="s">
+        <v>251</v>
+      </c>
+      <c r="H52" t="s">
+        <v>33</v>
+      </c>
+      <c r="I52" t="s">
+        <v>12</v>
+      </c>
+      <c r="J52" t="s">
+        <v>255</v>
+      </c>
+      <c r="K52" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="53" spans="2:11" ht="95" customHeight="1">
+      <c r="B53" t="s">
+        <v>257</v>
+      </c>
+      <c r="C53" t="s">
+        <v>29</v>
+      </c>
+      <c r="D53" t="s">
+        <v>258</v>
+      </c>
+      <c r="E53" t="s">
+        <v>15</v>
+      </c>
+      <c r="F53" t="s">
+        <v>259</v>
+      </c>
+      <c r="G53" t="s">
+        <v>251</v>
+      </c>
+      <c r="H53" t="s">
+        <v>33</v>
+      </c>
+      <c r="I53" t="s">
+        <v>260</v>
+      </c>
+      <c r="J53" t="s">
+        <v>12</v>
+      </c>
+      <c r="K53" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="54" spans="2:11" ht="95" customHeight="1">
+      <c r="B54" t="s">
+        <v>261</v>
+      </c>
+      <c r="C54" t="s">
+        <v>262</v>
+      </c>
+      <c r="D54" t="s">
+        <v>263</v>
+      </c>
+      <c r="E54" t="s">
+        <v>31</v>
+      </c>
+      <c r="F54" t="s">
+        <v>95</v>
+      </c>
+      <c r="G54" t="s">
+        <v>251</v>
+      </c>
+      <c r="H54" t="s">
+        <v>33</v>
+      </c>
+      <c r="I54" t="s">
+        <v>12</v>
+      </c>
+      <c r="J54" t="s">
+        <v>264</v>
+      </c>
+      <c r="K54" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="55" spans="2:11" ht="95" customHeight="1">
+      <c r="B55" t="s">
+        <v>266</v>
+      </c>
+      <c r="C55" t="s">
+        <v>267</v>
+      </c>
+      <c r="D55" t="s">
+        <v>12</v>
+      </c>
+      <c r="E55" t="s">
+        <v>12</v>
+      </c>
+      <c r="F55" t="s">
+        <v>12</v>
+      </c>
+      <c r="G55" t="s">
+        <v>251</v>
+      </c>
+      <c r="H55" t="s">
+        <v>33</v>
+      </c>
+      <c r="I55" t="s">
+        <v>12</v>
+      </c>
+      <c r="J55" t="s">
+        <v>268</v>
+      </c>
+      <c r="K55" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="56" spans="2:11" ht="95" customHeight="1">
+      <c r="B56" t="s">
+        <v>270</v>
+      </c>
+      <c r="C56" t="s">
+        <v>271</v>
+      </c>
+      <c r="D56" t="s">
+        <v>272</v>
+      </c>
+      <c r="E56" t="s">
+        <v>31</v>
+      </c>
+      <c r="F56" t="s">
+        <v>273</v>
+      </c>
+      <c r="G56" t="s">
+        <v>251</v>
+      </c>
+      <c r="H56" t="s">
+        <v>33</v>
+      </c>
+      <c r="I56" t="s">
+        <v>12</v>
+      </c>
+      <c r="J56" t="s">
+        <v>274</v>
+      </c>
+      <c r="K56" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="57" spans="2:11" ht="95" customHeight="1">
+      <c r="B57" t="s">
+        <v>276</v>
+      </c>
+      <c r="C57" t="s">
+        <v>277</v>
+      </c>
+      <c r="D57" t="s">
+        <v>12</v>
+      </c>
+      <c r="E57" t="s">
+        <v>12</v>
+      </c>
+      <c r="F57" t="s">
+        <v>12</v>
+      </c>
+      <c r="G57" t="s">
+        <v>278</v>
+      </c>
+      <c r="H57" t="s">
+        <v>33</v>
+      </c>
+      <c r="I57" t="s">
+        <v>12</v>
+      </c>
+      <c r="J57" t="s">
+        <v>160</v>
+      </c>
+      <c r="K57" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="58" spans="2:11" ht="95" customHeight="1">
+      <c r="B58" t="s">
+        <v>280</v>
+      </c>
+      <c r="C58" t="s">
+        <v>281</v>
+      </c>
+      <c r="D58" t="s">
+        <v>12</v>
+      </c>
+      <c r="E58" t="s">
+        <v>12</v>
+      </c>
+      <c r="F58" t="s">
+        <v>12</v>
+      </c>
+      <c r="G58" t="s">
+        <v>278</v>
+      </c>
+      <c r="H58" t="s">
+        <v>33</v>
+      </c>
+      <c r="I58" t="s">
+        <v>12</v>
+      </c>
+      <c r="J58" t="s">
+        <v>282</v>
+      </c>
+      <c r="K58" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="59" spans="2:11" ht="95" customHeight="1">
+      <c r="B59" t="s">
+        <v>284</v>
+      </c>
+      <c r="C59" t="s">
+        <v>268</v>
+      </c>
+      <c r="D59" t="s">
+        <v>285</v>
+      </c>
+      <c r="E59" t="s">
+        <v>15</v>
+      </c>
+      <c r="F59" t="s">
+        <v>286</v>
+      </c>
+      <c r="G59" t="s">
+        <v>278</v>
+      </c>
+      <c r="H59" t="s">
+        <v>33</v>
+      </c>
+      <c r="I59" t="s">
+        <v>12</v>
+      </c>
+      <c r="J59" t="s">
+        <v>287</v>
+      </c>
+      <c r="K59" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="60" spans="2:11" ht="95" customHeight="1">
+      <c r="B60" t="s">
+        <v>288</v>
+      </c>
+      <c r="C60" t="s">
+        <v>289</v>
+      </c>
+      <c r="D60" t="s">
+        <v>290</v>
+      </c>
+      <c r="E60" t="s">
+        <v>15</v>
+      </c>
+      <c r="F60" t="s">
+        <v>206</v>
+      </c>
+      <c r="G60" t="s">
+        <v>278</v>
+      </c>
+      <c r="H60" t="s">
+        <v>33</v>
+      </c>
+      <c r="I60" t="s">
+        <v>12</v>
+      </c>
+      <c r="J60" t="s">
+        <v>291</v>
+      </c>
+      <c r="K60" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="61" spans="2:11" ht="95" customHeight="1">
+      <c r="B61" t="s">
+        <v>293</v>
+      </c>
+      <c r="C61" t="s">
+        <v>294</v>
+      </c>
+      <c r="D61" t="s">
+        <v>295</v>
+      </c>
+      <c r="E61" t="s">
+        <v>83</v>
+      </c>
+      <c r="F61" t="s">
+        <v>150</v>
+      </c>
+      <c r="G61" t="s">
+        <v>296</v>
+      </c>
+      <c r="H61" t="s">
+        <v>33</v>
+      </c>
+      <c r="I61" t="s">
+        <v>12</v>
+      </c>
+      <c r="J61" t="s">
+        <v>297</v>
+      </c>
+      <c r="K61" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="62" spans="2:11" ht="95" customHeight="1">
+      <c r="B62" t="s">
+        <v>299</v>
+      </c>
+      <c r="C62" t="s">
+        <v>300</v>
+      </c>
+      <c r="D62" t="s">
+        <v>301</v>
+      </c>
+      <c r="E62" t="s">
+        <v>63</v>
+      </c>
+      <c r="F62" t="s">
+        <v>146</v>
+      </c>
+      <c r="G62" t="s">
+        <v>302</v>
+      </c>
+      <c r="H62" t="s">
+        <v>33</v>
+      </c>
+      <c r="I62" t="s">
+        <v>12</v>
+      </c>
+      <c r="J62" t="s">
+        <v>303</v>
+      </c>
+      <c r="K62" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="63" spans="2:11" ht="95" customHeight="1">
+      <c r="B63" t="s">
+        <v>305</v>
+      </c>
+      <c r="C63" t="s">
+        <v>306</v>
+      </c>
+      <c r="D63" t="s">
+        <v>307</v>
+      </c>
+      <c r="E63" t="s">
+        <v>83</v>
+      </c>
+      <c r="F63" t="s">
+        <v>308</v>
+      </c>
+      <c r="G63" t="s">
+        <v>309</v>
+      </c>
+      <c r="H63" t="s">
+        <v>33</v>
+      </c>
+      <c r="I63" t="s">
+        <v>12</v>
+      </c>
+      <c r="J63" t="s">
+        <v>310</v>
+      </c>
+      <c r="K63" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="64" spans="2:11" ht="95" customHeight="1">
+      <c r="B64" t="s">
+        <v>312</v>
+      </c>
+      <c r="C64" t="s">
+        <v>313</v>
+      </c>
+      <c r="D64" t="s">
+        <v>314</v>
+      </c>
+      <c r="E64" t="s">
+        <v>83</v>
+      </c>
+      <c r="F64" t="s">
+        <v>315</v>
+      </c>
+      <c r="G64" t="s">
+        <v>309</v>
+      </c>
+      <c r="H64" t="s">
+        <v>33</v>
+      </c>
+      <c r="I64" t="s">
+        <v>12</v>
+      </c>
+      <c r="J64" t="s">
+        <v>316</v>
+      </c>
+      <c r="K64" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="65" spans="2:11" ht="95" customHeight="1">
+      <c r="B65" t="s">
+        <v>318</v>
+      </c>
+      <c r="C65" t="s">
+        <v>319</v>
+      </c>
+      <c r="D65" t="s">
+        <v>12</v>
+      </c>
+      <c r="E65" t="s">
+        <v>12</v>
+      </c>
+      <c r="F65" t="s">
+        <v>12</v>
+      </c>
+      <c r="G65" t="s">
+        <v>309</v>
+      </c>
+      <c r="H65" t="s">
+        <v>33</v>
+      </c>
+      <c r="I65" t="s">
+        <v>12</v>
+      </c>
+      <c r="J65" t="s">
+        <v>320</v>
+      </c>
+      <c r="K65" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="66" spans="2:11" ht="95" customHeight="1">
+      <c r="B66" t="s">
+        <v>322</v>
+      </c>
+      <c r="C66" t="s">
+        <v>323</v>
+      </c>
+      <c r="D66" t="s">
+        <v>118</v>
+      </c>
+      <c r="E66" t="s">
+        <v>15</v>
+      </c>
+      <c r="F66" t="s">
+        <v>216</v>
+      </c>
+      <c r="G66" t="s">
+        <v>309</v>
+      </c>
+      <c r="H66" t="s">
+        <v>33</v>
+      </c>
+      <c r="I66" t="s">
+        <v>12</v>
+      </c>
+      <c r="J66" t="s">
+        <v>324</v>
+      </c>
+      <c r="K66" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="67" spans="2:11" ht="95" customHeight="1">
+      <c r="B67" t="s">
+        <v>326</v>
+      </c>
+      <c r="C67" t="s">
+        <v>327</v>
+      </c>
+      <c r="D67" t="s">
+        <v>328</v>
+      </c>
+      <c r="E67" t="s">
+        <v>31</v>
+      </c>
+      <c r="F67" t="s">
+        <v>273</v>
+      </c>
+      <c r="G67" t="s">
+        <v>309</v>
+      </c>
+      <c r="H67" t="s">
+        <v>33</v>
+      </c>
+      <c r="I67" t="s">
+        <v>12</v>
+      </c>
+      <c r="J67" t="s">
+        <v>329</v>
+      </c>
+      <c r="K67" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="68" spans="2:11" ht="95" customHeight="1">
+      <c r="B68" t="s">
+        <v>331</v>
+      </c>
+      <c r="C68" t="s">
+        <v>332</v>
+      </c>
+      <c r="D68" t="s">
+        <v>333</v>
+      </c>
+      <c r="E68" t="s">
+        <v>31</v>
+      </c>
+      <c r="F68" t="s">
+        <v>334</v>
+      </c>
+      <c r="G68" t="s">
+        <v>309</v>
+      </c>
+      <c r="H68" t="s">
+        <v>33</v>
+      </c>
+      <c r="I68" t="s">
+        <v>12</v>
+      </c>
+      <c r="J68" t="s">
+        <v>39</v>
+      </c>
+      <c r="K68" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="69" spans="2:11" ht="95" customHeight="1">
+      <c r="B69" t="s">
+        <v>336</v>
+      </c>
+      <c r="C69" t="s">
+        <v>337</v>
+      </c>
+      <c r="D69" t="s">
+        <v>175</v>
+      </c>
+      <c r="E69" t="s">
+        <v>83</v>
+      </c>
+      <c r="F69" t="s">
+        <v>338</v>
+      </c>
+      <c r="G69" t="s">
+        <v>339</v>
+      </c>
+      <c r="H69" t="s">
+        <v>33</v>
+      </c>
+      <c r="I69" t="s">
+        <v>12</v>
+      </c>
+      <c r="J69" t="s">
+        <v>340</v>
+      </c>
+      <c r="K69" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="70" spans="2:11" ht="95" customHeight="1">
+      <c r="B70" t="s">
+        <v>342</v>
+      </c>
+      <c r="C70" t="s">
+        <v>343</v>
+      </c>
+      <c r="D70" t="s">
+        <v>344</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>95</v>
+      </c>
+      <c r="G70" t="s">
+        <v>339</v>
+      </c>
+      <c r="H70" t="s">
+        <v>33</v>
+      </c>
+      <c r="I70" t="s">
+        <v>12</v>
+      </c>
+      <c r="J70" t="s">
+        <v>345</v>
+      </c>
+      <c r="K70" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="71" spans="2:11" ht="95" customHeight="1">
+      <c r="B71" t="s">
+        <v>347</v>
+      </c>
+      <c r="C71" t="s">
+        <v>348</v>
+      </c>
+      <c r="D71" t="s">
+        <v>12</v>
+      </c>
+      <c r="E71" t="s">
+        <v>12</v>
+      </c>
+      <c r="F71" t="s">
+        <v>12</v>
+      </c>
+      <c r="G71" t="s">
+        <v>339</v>
+      </c>
+      <c r="H71" t="s">
+        <v>33</v>
+      </c>
+      <c r="I71" t="s">
+        <v>12</v>
+      </c>
+      <c r="J71" t="s">
+        <v>349</v>
+      </c>
+      <c r="K71" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="72" spans="2:11" ht="95" customHeight="1">
+      <c r="B72" t="s">
+        <v>350</v>
+      </c>
+      <c r="C72" t="s">
+        <v>351</v>
+      </c>
+      <c r="D72" t="s">
+        <v>139</v>
+      </c>
+      <c r="E72" t="s">
+        <v>31</v>
+      </c>
+      <c r="F72" t="s">
+        <v>352</v>
+      </c>
+      <c r="G72" t="s">
+        <v>339</v>
+      </c>
+      <c r="H72" t="s">
+        <v>33</v>
+      </c>
+      <c r="I72" t="s">
+        <v>12</v>
+      </c>
+      <c r="J72" t="s">
+        <v>353</v>
+      </c>
+      <c r="K72" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="73" spans="2:11" ht="95" customHeight="1">
+      <c r="B73" t="s">
+        <v>355</v>
+      </c>
+      <c r="C73" t="s">
+        <v>29</v>
+      </c>
+      <c r="D73" t="s">
+        <v>356</v>
+      </c>
+      <c r="E73" t="s">
+        <v>15</v>
+      </c>
+      <c r="F73" t="s">
+        <v>357</v>
+      </c>
+      <c r="G73" t="s">
+        <v>358</v>
+      </c>
+      <c r="H73" t="s">
+        <v>33</v>
+      </c>
+      <c r="I73" t="s">
+        <v>359</v>
+      </c>
+      <c r="J73" t="s">
+        <v>12</v>
+      </c>
+      <c r="K73" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="74" spans="2:11" ht="95" customHeight="1">
+      <c r="B74" t="s">
+        <v>360</v>
+      </c>
+      <c r="C74" t="s">
+        <v>361</v>
+      </c>
+      <c r="D74" t="s">
+        <v>12</v>
+      </c>
+      <c r="E74" t="s">
+        <v>12</v>
+      </c>
+      <c r="F74" t="s">
+        <v>12</v>
+      </c>
+      <c r="G74" t="s">
+        <v>358</v>
+      </c>
+      <c r="H74" t="s">
+        <v>33</v>
+      </c>
+      <c r="I74" t="s">
+        <v>12</v>
+      </c>
+      <c r="J74" t="s">
+        <v>362</v>
+      </c>
+      <c r="K74" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="75" spans="2:11" ht="95" customHeight="1">
+      <c r="B75" t="s">
+        <v>364</v>
+      </c>
+      <c r="C75" t="s">
+        <v>365</v>
+      </c>
+      <c r="D75" t="s">
+        <v>12</v>
+      </c>
+      <c r="E75" t="s">
+        <v>12</v>
+      </c>
+      <c r="F75" t="s">
+        <v>12</v>
+      </c>
+      <c r="G75" t="s">
+        <v>358</v>
+      </c>
+      <c r="H75" t="s">
+        <v>33</v>
+      </c>
+      <c r="I75" t="s">
+        <v>12</v>
+      </c>
+      <c r="J75" t="s">
+        <v>366</v>
+      </c>
+      <c r="K75" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="76" spans="2:11" ht="95" customHeight="1">
+      <c r="B76" t="s">
+        <v>368</v>
+      </c>
+      <c r="C76" t="s">
+        <v>369</v>
+      </c>
+      <c r="D76" t="s">
+        <v>12</v>
+      </c>
+      <c r="E76" t="s">
+        <v>12</v>
+      </c>
+      <c r="F76" t="s">
+        <v>12</v>
+      </c>
+      <c r="G76" t="s">
+        <v>358</v>
+      </c>
+      <c r="H76" t="s">
+        <v>33</v>
+      </c>
+      <c r="I76" t="s">
+        <v>12</v>
+      </c>
+      <c r="J76" t="s">
+        <v>145</v>
+      </c>
+      <c r="K76" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="77" spans="2:11" ht="95" customHeight="1">
+      <c r="B77" t="s">
+        <v>371</v>
+      </c>
+      <c r="C77" t="s">
+        <v>372</v>
+      </c>
+      <c r="D77" t="s">
+        <v>12</v>
+      </c>
+      <c r="E77" t="s">
+        <v>12</v>
+      </c>
+      <c r="F77" t="s">
+        <v>12</v>
+      </c>
+      <c r="G77" t="s">
+        <v>358</v>
+      </c>
+      <c r="H77" t="s">
+        <v>33</v>
+      </c>
+      <c r="I77" t="s">
+        <v>12</v>
+      </c>
+      <c r="J77" t="s">
+        <v>373</v>
+      </c>
+      <c r="K77" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="78" spans="2:11" ht="95" customHeight="1">
+      <c r="B78" t="s">
+        <v>374</v>
+      </c>
+      <c r="C78" t="s">
+        <v>29</v>
+      </c>
+      <c r="D78" t="s">
+        <v>375</v>
+      </c>
+      <c r="E78" t="s">
+        <v>83</v>
+      </c>
+      <c r="F78" t="s">
+        <v>376</v>
+      </c>
+      <c r="G78" t="s">
+        <v>358</v>
+      </c>
+      <c r="H78" t="s">
+        <v>33</v>
+      </c>
+      <c r="I78" t="s">
+        <v>377</v>
+      </c>
+      <c r="J78" t="s">
+        <v>12</v>
+      </c>
+      <c r="K78" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="79" spans="2:11" ht="95" customHeight="1">
+      <c r="B79" t="s">
+        <v>378</v>
+      </c>
+      <c r="C79" t="s">
+        <v>379</v>
+      </c>
+      <c r="D79" t="s">
+        <v>254</v>
+      </c>
+      <c r="E79" t="s">
+        <v>15</v>
+      </c>
+      <c r="F79" t="s">
+        <v>380</v>
+      </c>
+      <c r="G79" t="s">
+        <v>358</v>
+      </c>
+      <c r="H79" t="s">
+        <v>33</v>
+      </c>
+      <c r="I79" t="s">
+        <v>12</v>
+      </c>
+      <c r="J79" t="s">
+        <v>381</v>
+      </c>
+      <c r="K79" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="80" spans="2:11" ht="95" customHeight="1">
+      <c r="B80" t="s">
+        <v>383</v>
+      </c>
+      <c r="C80" t="s">
+        <v>384</v>
+      </c>
+      <c r="D80" t="s">
+        <v>12</v>
+      </c>
+      <c r="E80" t="s">
+        <v>12</v>
+      </c>
+      <c r="F80" t="s">
+        <v>12</v>
+      </c>
+      <c r="G80" t="s">
+        <v>385</v>
+      </c>
+      <c r="H80" t="s">
+        <v>33</v>
+      </c>
+      <c r="I80" t="s">
+        <v>12</v>
+      </c>
+      <c r="J80" t="s">
+        <v>386</v>
+      </c>
+      <c r="K80" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="81" spans="2:11" ht="95" customHeight="1">
+      <c r="B81" t="s">
+        <v>388</v>
+      </c>
+      <c r="C81" t="s">
+        <v>389</v>
+      </c>
+      <c r="D81" t="s">
+        <v>12</v>
+      </c>
+      <c r="E81" t="s">
+        <v>12</v>
+      </c>
+      <c r="F81" t="s">
+        <v>12</v>
+      </c>
+      <c r="G81" t="s">
+        <v>390</v>
+      </c>
+      <c r="H81" t="s">
+        <v>33</v>
+      </c>
+      <c r="I81" t="s">
+        <v>12</v>
+      </c>
+      <c r="J81" t="s">
+        <v>391</v>
+      </c>
+      <c r="K81" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="82" spans="2:11" ht="95" customHeight="1">
+      <c r="B82" t="s">
+        <v>393</v>
+      </c>
+      <c r="C82" t="s">
+        <v>394</v>
+      </c>
+      <c r="D82" t="s">
+        <v>12</v>
+      </c>
+      <c r="E82" t="s">
+        <v>12</v>
+      </c>
+      <c r="F82" t="s">
+        <v>12</v>
+      </c>
+      <c r="G82" t="s">
+        <v>390</v>
+      </c>
+      <c r="H82" t="s">
+        <v>33</v>
+      </c>
+      <c r="I82" t="s">
+        <v>12</v>
+      </c>
+      <c r="J82" t="s">
+        <v>391</v>
+      </c>
+      <c r="K82" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="83" spans="2:11" ht="95" customHeight="1">
+      <c r="B83" t="s">
+        <v>396</v>
+      </c>
+      <c r="C83" t="s">
+        <v>29</v>
+      </c>
+      <c r="D83" t="s">
+        <v>397</v>
+      </c>
+      <c r="E83" t="s">
+        <v>83</v>
+      </c>
+      <c r="F83" t="s">
+        <v>38</v>
+      </c>
+      <c r="G83" t="s">
+        <v>385</v>
+      </c>
+      <c r="H83" t="s">
+        <v>33</v>
+      </c>
+      <c r="I83" t="s">
+        <v>398</v>
+      </c>
+      <c r="J83" t="s">
+        <v>12</v>
+      </c>
+      <c r="K83" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="84" spans="2:11" ht="95" customHeight="1">
+      <c r="B84" t="s">
+        <v>399</v>
+      </c>
+      <c r="C84" t="s">
+        <v>400</v>
+      </c>
+      <c r="D84" t="s">
+        <v>401</v>
+      </c>
+      <c r="E84" t="s">
+        <v>31</v>
+      </c>
+      <c r="F84" t="s">
+        <v>402</v>
+      </c>
+      <c r="G84" t="s">
+        <v>385</v>
+      </c>
+      <c r="H84" t="s">
+        <v>33</v>
+      </c>
+      <c r="I84" t="s">
+        <v>12</v>
+      </c>
+      <c r="J84" t="s">
+        <v>403</v>
+      </c>
+      <c r="K84" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="85" spans="2:11" ht="95" customHeight="1">
+      <c r="B85" t="s">
+        <v>405</v>
+      </c>
+      <c r="C85" t="s">
+        <v>406</v>
+      </c>
+      <c r="D85" t="s">
+        <v>12</v>
+      </c>
+      <c r="E85" t="s">
+        <v>12</v>
+      </c>
+      <c r="F85" t="s">
+        <v>12</v>
+      </c>
+      <c r="G85" t="s">
+        <v>385</v>
+      </c>
+      <c r="H85" t="s">
+        <v>33</v>
+      </c>
+      <c r="I85" t="s">
+        <v>12</v>
+      </c>
+      <c r="J85" t="s">
+        <v>407</v>
+      </c>
+      <c r="K85" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="86" spans="2:11" ht="95" customHeight="1">
+      <c r="B86" t="s">
+        <v>409</v>
+      </c>
+      <c r="C86" t="s">
+        <v>410</v>
+      </c>
+      <c r="D86" t="s">
+        <v>12</v>
+      </c>
+      <c r="E86" t="s">
+        <v>12</v>
+      </c>
+      <c r="F86" t="s">
+        <v>12</v>
+      </c>
+      <c r="G86" t="s">
+        <v>385</v>
+      </c>
+      <c r="H86" t="s">
+        <v>33</v>
+      </c>
+      <c r="I86" t="s">
+        <v>12</v>
+      </c>
+      <c r="J86" t="s">
+        <v>411</v>
+      </c>
+      <c r="K86" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="87" spans="2:11" ht="95" customHeight="1">
+      <c r="B87" t="s">
+        <v>413</v>
+      </c>
+      <c r="C87" t="s">
+        <v>203</v>
+      </c>
+      <c r="D87" t="s">
+        <v>414</v>
+      </c>
+      <c r="E87" t="s">
+        <v>31</v>
+      </c>
+      <c r="F87" t="s">
+        <v>134</v>
+      </c>
+      <c r="G87" t="s">
+        <v>385</v>
+      </c>
+      <c r="H87" t="s">
+        <v>33</v>
+      </c>
+      <c r="I87" t="s">
+        <v>12</v>
+      </c>
+      <c r="J87" t="s">
+        <v>415</v>
+      </c>
+      <c r="K87" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="88" spans="2:11" ht="95" customHeight="1">
+      <c r="B88" t="s">
+        <v>417</v>
+      </c>
+      <c r="C88" t="s">
+        <v>66</v>
+      </c>
+      <c r="D88" t="s">
+        <v>418</v>
+      </c>
+      <c r="E88" t="s">
+        <v>31</v>
+      </c>
+      <c r="F88" t="s">
+        <v>380</v>
+      </c>
+      <c r="G88" t="s">
+        <v>419</v>
+      </c>
+      <c r="H88" t="s">
+        <v>33</v>
+      </c>
+      <c r="I88" t="s">
+        <v>12</v>
+      </c>
+      <c r="J88" t="s">
+        <v>420</v>
+      </c>
+      <c r="K88" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="89" spans="2:11" ht="95" customHeight="1">
+      <c r="B89" t="s">
+        <v>421</v>
+      </c>
+      <c r="C89" t="s">
+        <v>422</v>
+      </c>
+      <c r="D89" t="s">
+        <v>423</v>
+      </c>
+      <c r="E89" t="s">
+        <v>31</v>
+      </c>
+      <c r="F89" t="s">
+        <v>424</v>
+      </c>
+      <c r="G89" t="s">
+        <v>425</v>
+      </c>
+      <c r="H89" t="s">
+        <v>33</v>
+      </c>
+      <c r="I89" t="s">
+        <v>426</v>
+      </c>
+      <c r="J89" t="s">
+        <v>12</v>
+      </c>
+      <c r="K89" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="90" spans="2:11" ht="95" customHeight="1">
+      <c r="B90" t="s">
+        <v>427</v>
+      </c>
+      <c r="C90" t="s">
+        <v>428</v>
+      </c>
+      <c r="D90" t="s">
+        <v>12</v>
+      </c>
+      <c r="E90" t="s">
+        <v>12</v>
+      </c>
+      <c r="F90" t="s">
+        <v>12</v>
+      </c>
+      <c r="G90" t="s">
+        <v>425</v>
+      </c>
+      <c r="H90" t="s">
+        <v>33</v>
+      </c>
+      <c r="I90" t="s">
+        <v>12</v>
+      </c>
+      <c r="J90" t="s">
+        <v>429</v>
+      </c>
+      <c r="K90" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="91" spans="2:11" ht="95" customHeight="1">
+      <c r="B91" t="s">
+        <v>431</v>
+      </c>
+      <c r="C91" t="s">
+        <v>432</v>
+      </c>
+      <c r="D91" t="s">
+        <v>149</v>
+      </c>
+      <c r="E91" t="s">
+        <v>31</v>
+      </c>
+      <c r="F91" t="s">
+        <v>201</v>
+      </c>
+      <c r="G91" t="s">
+        <v>425</v>
+      </c>
+      <c r="H91" t="s">
+        <v>33</v>
+      </c>
+      <c r="I91" t="s">
+        <v>12</v>
+      </c>
+      <c r="J91" t="s">
+        <v>433</v>
+      </c>
+      <c r="K91" t="s">
+        <v>434</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
